--- a/examples/masterarbeit/yale_total_notebooks/experiments_yale.xlsx
+++ b/examples/masterarbeit/yale_total_notebooks/experiments_yale.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Florian\Documents\PySyft-fork\examples\masterarbeit\yale_total_notebooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{516A80C0-063E-46BF-A1EF-357BDDA915C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E680165-1C9E-4F94-9DCE-D1E2F7100951}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C11075B9-7AA2-416A-A2BB-E8EDCD451B3E}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{C11075B9-7AA2-416A-A2BB-E8EDCD451B3E}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="43">
   <si>
     <t>Merge strategy</t>
   </si>
@@ -107,13 +106,67 @@
   </si>
   <si>
     <t>exp_yale_20200317-141935</t>
+  </si>
+  <si>
+    <t>exp_yale_20200320-091248</t>
+  </si>
+  <si>
+    <t>exp_yale_20200320-091322</t>
+  </si>
+  <si>
+    <t>exp_yale_20200320-110135</t>
+  </si>
+  <si>
+    <t>exp_yale_20200320-115106</t>
+  </si>
+  <si>
+    <t>exp_yale_20200320-125400</t>
+  </si>
+  <si>
+    <t>exp_yale_20200320-140717</t>
+  </si>
+  <si>
+    <t>exp_yale_20200320-150555</t>
+  </si>
+  <si>
+    <t>exp_yale_20200320-155935</t>
+  </si>
+  <si>
+    <t>exp_yale_20200320-142106</t>
+  </si>
+  <si>
+    <t>exp_yale_20200320-150704</t>
+  </si>
+  <si>
+    <t>exp_yale_20200320-155216</t>
+  </si>
+  <si>
+    <t>exp_yale_20200320-170002</t>
+  </si>
+  <si>
+    <t>exp_yale_20200320-173907</t>
+  </si>
+  <si>
+    <t>exp_yale_20200320-182046</t>
+  </si>
+  <si>
+    <t>exp_yale_20200320-190311</t>
+  </si>
+  <si>
+    <t>exp_yale_20200321-091703</t>
+  </si>
+  <si>
+    <t>exp_yale_20200321-102415</t>
+  </si>
+  <si>
+    <t>exp_yale_20200321-111208</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -134,8 +187,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -147,8 +208,13 @@
         <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -156,16 +222,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Berechnung" xfId="2" builtinId="22"/>
     <cellStyle name="Gut" xfId="1" builtinId="26"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -479,10 +566,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A100B0B-FE3B-4C26-A276-BE253BBFC4CB}">
-  <dimension ref="A1:I56"/>
+  <dimension ref="A1:J54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -576,96 +663,108 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
+    <row r="6" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>10</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>0</v>
       </c>
-      <c r="D6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7">
+      <c r="D6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1">
         <v>2</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>0</v>
       </c>
-      <c r="D7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8">
+      <c r="D7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="1">
         <v>5</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
         <v>0</v>
       </c>
-      <c r="D8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
+      <c r="D8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
         <v>10</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <v>0</v>
       </c>
-      <c r="D9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" t="s">
-        <v>13</v>
+      <c r="D9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.4">
@@ -673,32 +772,32 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A13" t="s">
+    <row r="13" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="1">
         <v>4</v>
       </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13">
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="1">
         <v>100</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I13" s="1" t="s">
         <v>23</v>
       </c>
     </row>
@@ -731,59 +830,65 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A15" t="s">
+    <row r="15" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B15">
-        <v>9</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15">
+      <c r="B15" s="1">
+        <v>9</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="1">
         <v>100</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H15" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A16" t="s">
+      <c r="I15" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B16">
-        <v>9</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16">
+      <c r="B16" s="1">
+        <v>9</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="1">
         <v>100</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H16" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I16" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -805,11 +910,11 @@
       <c r="G18" t="s">
         <v>11</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H18" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -831,11 +936,11 @@
       <c r="G19" t="s">
         <v>12</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H19" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -857,11 +962,11 @@
       <c r="G20" t="s">
         <v>11</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H20" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -883,134 +988,144 @@
       <c r="G21" t="s">
         <v>12</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H21" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A24" t="s">
-        <v>8</v>
-      </c>
-      <c r="B24">
-        <v>4</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="D24" t="s">
-        <v>9</v>
-      </c>
-      <c r="E24">
-        <v>25</v>
-      </c>
-      <c r="F24" t="s">
+    <row r="24" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="1">
+        <v>9</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="1">
+        <v>100</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G24" t="s">
-        <v>13</v>
-      </c>
-      <c r="H24" t="s">
+      <c r="G24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A25" t="s">
-        <v>8</v>
-      </c>
-      <c r="B25">
-        <v>4</v>
-      </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-      <c r="D25" t="s">
-        <v>9</v>
-      </c>
-      <c r="E25">
-        <v>50</v>
-      </c>
-      <c r="F25" t="s">
+      <c r="I24" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="1">
+        <v>8</v>
+      </c>
+      <c r="C25" s="1">
+        <v>2</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="1">
+        <v>100</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G25" t="s">
-        <v>13</v>
-      </c>
-      <c r="H25" t="s">
+      <c r="G25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H25" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A26" t="s">
-        <v>8</v>
-      </c>
-      <c r="B26">
-        <v>4</v>
-      </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="D26" t="s">
-        <v>9</v>
-      </c>
-      <c r="E26">
-        <v>75</v>
-      </c>
-      <c r="F26" t="s">
+      <c r="I25" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="1">
+        <v>7</v>
+      </c>
+      <c r="C26" s="1">
+        <v>3</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="1">
+        <v>100</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G26" t="s">
-        <v>13</v>
-      </c>
-      <c r="H26" t="s">
+      <c r="G26" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H26" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A27" t="s">
-        <v>8</v>
-      </c>
-      <c r="B27">
-        <v>4</v>
-      </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="D27" t="s">
-        <v>9</v>
-      </c>
-      <c r="E27">
+      <c r="I26" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J26" s="3"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28">
+        <v>9</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28">
         <v>100</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F28" t="s">
         <v>10</v>
       </c>
-      <c r="G27" t="s">
-        <v>13</v>
-      </c>
-      <c r="H27" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="G28" t="s">
+        <v>13</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>8</v>
       </c>
       <c r="B29">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D29" t="s">
         <v>9</v>
       </c>
       <c r="E29">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="F29" t="s">
         <v>10</v>
@@ -1018,25 +1133,25 @@
       <c r="G29" t="s">
         <v>13</v>
       </c>
-      <c r="H29" t="s">
+      <c r="H29" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>8</v>
       </c>
       <c r="B30">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D30" t="s">
         <v>9</v>
       </c>
       <c r="E30">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F30" t="s">
         <v>10</v>
@@ -1044,167 +1159,156 @@
       <c r="G30" t="s">
         <v>13</v>
       </c>
-      <c r="H30" t="s">
+      <c r="H30" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A31" t="s">
-        <v>8</v>
-      </c>
-      <c r="B31">
+    <row r="32" spans="1:10" s="1" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" s="1">
         <v>4</v>
       </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
-      <c r="D31" t="s">
-        <v>9</v>
-      </c>
-      <c r="E31">
+      <c r="C32" s="1">
+        <v>1</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" s="1">
+        <v>12.5</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" s="1">
+        <v>4</v>
+      </c>
+      <c r="C33" s="1">
+        <v>1</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" s="1">
+        <v>25</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34" s="1">
+        <v>4</v>
+      </c>
+      <c r="C34" s="1">
+        <v>1</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" s="1">
+        <v>50</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35" s="1">
+        <v>4</v>
+      </c>
+      <c r="C35" s="1">
+        <v>1</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" s="1">
         <v>75</v>
       </c>
-      <c r="F31" t="s">
-        <v>10</v>
-      </c>
-      <c r="G31" t="s">
-        <v>13</v>
-      </c>
-      <c r="H31" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A32" t="s">
-        <v>8</v>
-      </c>
-      <c r="B32">
+      <c r="F35" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36" s="1">
         <v>4</v>
       </c>
-      <c r="C32">
-        <v>1</v>
-      </c>
-      <c r="D32" t="s">
-        <v>9</v>
-      </c>
-      <c r="E32">
+      <c r="C36" s="1">
+        <v>1</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" s="1">
         <v>100</v>
       </c>
-      <c r="F32" t="s">
-        <v>10</v>
-      </c>
-      <c r="G32" t="s">
-        <v>13</v>
-      </c>
-      <c r="H32" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="14.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A34" t="s">
-        <v>8</v>
-      </c>
-      <c r="B34">
-        <v>4</v>
-      </c>
-      <c r="C34">
-        <v>1</v>
-      </c>
-      <c r="D34" t="s">
-        <v>9</v>
-      </c>
-      <c r="E34">
-        <v>12.5</v>
-      </c>
-      <c r="F34" t="s">
-        <v>18</v>
-      </c>
-      <c r="G34" t="s">
-        <v>13</v>
-      </c>
-      <c r="H34" t="s">
+      <c r="F36" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H36" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A35" t="s">
-        <v>8</v>
-      </c>
-      <c r="B35">
-        <v>4</v>
-      </c>
-      <c r="C35">
-        <v>1</v>
-      </c>
-      <c r="D35" t="s">
-        <v>9</v>
-      </c>
-      <c r="E35">
-        <v>25</v>
-      </c>
-      <c r="F35" t="s">
-        <v>18</v>
-      </c>
-      <c r="G35" t="s">
-        <v>13</v>
-      </c>
-      <c r="H35" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A36" t="s">
-        <v>8</v>
-      </c>
-      <c r="B36">
-        <v>4</v>
-      </c>
-      <c r="C36">
-        <v>1</v>
-      </c>
-      <c r="D36" t="s">
-        <v>9</v>
-      </c>
-      <c r="E36">
-        <v>50</v>
-      </c>
-      <c r="F36" t="s">
-        <v>18</v>
-      </c>
-      <c r="G36" t="s">
-        <v>13</v>
-      </c>
-      <c r="H36" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A37" t="s">
-        <v>8</v>
-      </c>
-      <c r="B37">
-        <v>4</v>
-      </c>
-      <c r="C37">
-        <v>1</v>
-      </c>
-      <c r="D37" t="s">
-        <v>9</v>
-      </c>
-      <c r="E37">
-        <v>75</v>
-      </c>
-      <c r="F37" t="s">
-        <v>18</v>
-      </c>
-      <c r="G37" t="s">
-        <v>13</v>
-      </c>
-      <c r="H37" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I36" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>8</v>
       </c>
@@ -1218,7 +1322,7 @@
         <v>9</v>
       </c>
       <c r="E38">
-        <v>100</v>
+        <v>12.5</v>
       </c>
       <c r="F38" t="s">
         <v>18</v>
@@ -1226,11 +1330,37 @@
       <c r="G38" t="s">
         <v>13</v>
       </c>
-      <c r="H38" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H38" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A39" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39">
+        <v>4</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39">
+        <v>25</v>
+      </c>
+      <c r="F39" t="s">
+        <v>18</v>
+      </c>
+      <c r="G39" t="s">
+        <v>13</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>8</v>
       </c>
@@ -1244,7 +1374,7 @@
         <v>9</v>
       </c>
       <c r="E40">
-        <v>12.5</v>
+        <v>50</v>
       </c>
       <c r="F40" t="s">
         <v>18</v>
@@ -1252,11 +1382,11 @@
       <c r="G40" t="s">
         <v>13</v>
       </c>
-      <c r="H40" t="s">
+      <c r="H40" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>8</v>
       </c>
@@ -1270,7 +1400,7 @@
         <v>9</v>
       </c>
       <c r="E41">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="F41" t="s">
         <v>18</v>
@@ -1278,11 +1408,11 @@
       <c r="G41" t="s">
         <v>13</v>
       </c>
-      <c r="H41" t="s">
+      <c r="H41" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>8</v>
       </c>
@@ -1296,331 +1426,291 @@
         <v>9</v>
       </c>
       <c r="E42">
+        <v>100</v>
+      </c>
+      <c r="F42" t="s">
+        <v>18</v>
+      </c>
+      <c r="G42" t="s">
+        <v>13</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A44" t="s">
+        <v>8</v>
+      </c>
+      <c r="B44">
+        <v>9</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44" t="s">
+        <v>9</v>
+      </c>
+      <c r="E44">
+        <v>12.5</v>
+      </c>
+      <c r="F44" t="s">
+        <v>18</v>
+      </c>
+      <c r="G44" t="s">
+        <v>13</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A45" t="s">
+        <v>8</v>
+      </c>
+      <c r="B45">
+        <v>9</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45" t="s">
+        <v>9</v>
+      </c>
+      <c r="E45">
+        <v>25</v>
+      </c>
+      <c r="F45" t="s">
+        <v>18</v>
+      </c>
+      <c r="G45" t="s">
+        <v>13</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A46" t="s">
+        <v>8</v>
+      </c>
+      <c r="B46">
+        <v>9</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46" t="s">
+        <v>9</v>
+      </c>
+      <c r="E46">
         <v>50</v>
       </c>
-      <c r="F42" t="s">
-        <v>18</v>
-      </c>
-      <c r="G42" t="s">
-        <v>13</v>
-      </c>
-      <c r="H42" t="s">
+      <c r="F46" t="s">
+        <v>18</v>
+      </c>
+      <c r="G46" t="s">
+        <v>13</v>
+      </c>
+      <c r="H46" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A43" t="s">
-        <v>8</v>
-      </c>
-      <c r="B43">
-        <v>4</v>
-      </c>
-      <c r="C43">
-        <v>1</v>
-      </c>
-      <c r="D43" t="s">
-        <v>9</v>
-      </c>
-      <c r="E43">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A47" t="s">
+        <v>8</v>
+      </c>
+      <c r="B47">
+        <v>9</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47" t="s">
+        <v>9</v>
+      </c>
+      <c r="E47">
         <v>75</v>
       </c>
-      <c r="F43" t="s">
-        <v>18</v>
-      </c>
-      <c r="G43" t="s">
-        <v>13</v>
-      </c>
-      <c r="H43" t="s">
+      <c r="F47" t="s">
+        <v>18</v>
+      </c>
+      <c r="G47" t="s">
+        <v>13</v>
+      </c>
+      <c r="H47" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A44" t="s">
-        <v>8</v>
-      </c>
-      <c r="B44">
-        <v>4</v>
-      </c>
-      <c r="C44">
-        <v>1</v>
-      </c>
-      <c r="D44" t="s">
-        <v>9</v>
-      </c>
-      <c r="E44">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A48" t="s">
+        <v>8</v>
+      </c>
+      <c r="B48">
+        <v>9</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48" t="s">
+        <v>9</v>
+      </c>
+      <c r="E48">
         <v>100</v>
       </c>
-      <c r="F44" t="s">
-        <v>18</v>
-      </c>
-      <c r="G44" t="s">
-        <v>13</v>
-      </c>
-      <c r="H44" t="s">
+      <c r="F48" t="s">
+        <v>18</v>
+      </c>
+      <c r="G48" t="s">
+        <v>13</v>
+      </c>
+      <c r="H48" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A46" t="s">
-        <v>8</v>
-      </c>
-      <c r="B46">
-        <v>9</v>
-      </c>
-      <c r="C46">
-        <v>1</v>
-      </c>
-      <c r="D46" t="s">
-        <v>9</v>
-      </c>
-      <c r="E46">
+    <row r="50" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A50" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B50" s="1">
+        <v>9</v>
+      </c>
+      <c r="C50" s="1">
+        <v>1</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E50" s="1">
         <v>12.5</v>
       </c>
-      <c r="F46" t="s">
-        <v>18</v>
-      </c>
-      <c r="G46" t="s">
-        <v>13</v>
-      </c>
-      <c r="H46" t="s">
+      <c r="F50" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H50" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A47" t="s">
-        <v>8</v>
-      </c>
-      <c r="B47">
-        <v>9</v>
-      </c>
-      <c r="C47">
-        <v>1</v>
-      </c>
-      <c r="D47" t="s">
-        <v>9</v>
-      </c>
-      <c r="E47">
+      <c r="I50" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A51" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B51" s="1">
+        <v>9</v>
+      </c>
+      <c r="C51" s="1">
+        <v>1</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E51" s="1">
         <v>25</v>
       </c>
-      <c r="F47" t="s">
-        <v>18</v>
-      </c>
-      <c r="G47" t="s">
-        <v>13</v>
-      </c>
-      <c r="H47" t="s">
+      <c r="F51" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H51" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A48" t="s">
-        <v>8</v>
-      </c>
-      <c r="B48">
-        <v>9</v>
-      </c>
-      <c r="C48">
-        <v>1</v>
-      </c>
-      <c r="D48" t="s">
-        <v>9</v>
-      </c>
-      <c r="E48">
+      <c r="I51" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B52" s="1">
+        <v>9</v>
+      </c>
+      <c r="C52" s="1">
+        <v>1</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E52" s="1">
         <v>50</v>
       </c>
-      <c r="F48" t="s">
-        <v>18</v>
-      </c>
-      <c r="G48" t="s">
-        <v>13</v>
-      </c>
-      <c r="H48" t="s">
+      <c r="F52" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H52" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A49" t="s">
-        <v>8</v>
-      </c>
-      <c r="B49">
-        <v>9</v>
-      </c>
-      <c r="C49">
-        <v>1</v>
-      </c>
-      <c r="D49" t="s">
-        <v>9</v>
-      </c>
-      <c r="E49">
+      <c r="I52" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B53" s="1">
+        <v>9</v>
+      </c>
+      <c r="C53" s="1">
+        <v>1</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E53" s="1">
         <v>75</v>
       </c>
-      <c r="F49" t="s">
-        <v>18</v>
-      </c>
-      <c r="G49" t="s">
-        <v>13</v>
-      </c>
-      <c r="H49" t="s">
+      <c r="F53" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H53" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A50" t="s">
-        <v>8</v>
-      </c>
-      <c r="B50">
-        <v>9</v>
-      </c>
-      <c r="C50">
-        <v>1</v>
-      </c>
-      <c r="D50" t="s">
-        <v>9</v>
-      </c>
-      <c r="E50">
+      <c r="I53" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B54" s="1">
+        <v>9</v>
+      </c>
+      <c r="C54" s="1">
+        <v>1</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E54" s="1">
         <v>100</v>
       </c>
-      <c r="F50" t="s">
-        <v>18</v>
-      </c>
-      <c r="G50" t="s">
-        <v>13</v>
-      </c>
-      <c r="H50" t="s">
+      <c r="F54" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H54" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A52" t="s">
-        <v>8</v>
-      </c>
-      <c r="B52">
-        <v>9</v>
-      </c>
-      <c r="C52">
-        <v>1</v>
-      </c>
-      <c r="D52" t="s">
-        <v>9</v>
-      </c>
-      <c r="E52">
-        <v>12.5</v>
-      </c>
-      <c r="F52" t="s">
-        <v>18</v>
-      </c>
-      <c r="G52" t="s">
-        <v>13</v>
-      </c>
-      <c r="H52" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A53" t="s">
-        <v>8</v>
-      </c>
-      <c r="B53">
-        <v>9</v>
-      </c>
-      <c r="C53">
-        <v>1</v>
-      </c>
-      <c r="D53" t="s">
-        <v>9</v>
-      </c>
-      <c r="E53">
-        <v>25</v>
-      </c>
-      <c r="F53" t="s">
-        <v>18</v>
-      </c>
-      <c r="G53" t="s">
-        <v>13</v>
-      </c>
-      <c r="H53" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A54" t="s">
-        <v>8</v>
-      </c>
-      <c r="B54">
-        <v>9</v>
-      </c>
-      <c r="C54">
-        <v>1</v>
-      </c>
-      <c r="D54" t="s">
-        <v>9</v>
-      </c>
-      <c r="E54">
-        <v>50</v>
-      </c>
-      <c r="F54" t="s">
-        <v>18</v>
-      </c>
-      <c r="G54" t="s">
-        <v>13</v>
-      </c>
-      <c r="H54" t="s">
-        <v>20</v>
-      </c>
-      <c r="I54" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A55" t="s">
-        <v>8</v>
-      </c>
-      <c r="B55">
-        <v>9</v>
-      </c>
-      <c r="C55">
-        <v>1</v>
-      </c>
-      <c r="D55" t="s">
-        <v>9</v>
-      </c>
-      <c r="E55">
-        <v>75</v>
-      </c>
-      <c r="F55" t="s">
-        <v>18</v>
-      </c>
-      <c r="G55" t="s">
-        <v>13</v>
-      </c>
-      <c r="H55" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A56" t="s">
-        <v>8</v>
-      </c>
-      <c r="B56">
-        <v>9</v>
-      </c>
-      <c r="C56">
-        <v>1</v>
-      </c>
-      <c r="D56" t="s">
-        <v>9</v>
-      </c>
-      <c r="E56">
-        <v>100</v>
-      </c>
-      <c r="F56" t="s">
-        <v>18</v>
-      </c>
-      <c r="G56" t="s">
-        <v>13</v>
-      </c>
-      <c r="H56" t="s">
-        <v>20</v>
+      <c r="I54" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/examples/masterarbeit/yale_total_notebooks/experiments_yale.xlsx
+++ b/examples/masterarbeit/yale_total_notebooks/experiments_yale.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Florian\Documents\PySyft-fork\examples\masterarbeit\yale_total_notebooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3643C890-0ACA-4D0B-A292-E671C8B935B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C70C92E-6C04-43B0-A380-703E21120BD2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{C11075B9-7AA2-416A-A2BB-E8EDCD451B3E}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C11075B9-7AA2-416A-A2BB-E8EDCD451B3E}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="44">
   <si>
     <t>Merge strategy</t>
   </si>
@@ -105,9 +105,6 @@
     <t>exp_yale_20200317-111217</t>
   </si>
   <si>
-    <t>exp_yale_20200317-141935</t>
-  </si>
-  <si>
     <t>exp_yale_20200320-091248</t>
   </si>
   <si>
@@ -160,13 +157,19 @@
   </si>
   <si>
     <t>exp_yale_20200321-111208</t>
+  </si>
+  <si>
+    <t>exp_yale_20200321-132011</t>
+  </si>
+  <si>
+    <t>TODO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -195,8 +198,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -211,6 +228,16 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -238,22 +265,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="4" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
     <cellStyle name="Berechnung" xfId="2" builtinId="22"/>
     <cellStyle name="Gut" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="4" builtinId="28"/>
+    <cellStyle name="Schlecht" xfId="3" builtinId="27"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -569,7 +602,7 @@
   <dimension ref="A1:J54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+      <selection activeCell="J32" sqref="J32:J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -583,7 +616,7 @@
     <col min="9" max="9" width="30.3046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -609,35 +642,39 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
+    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
         <v>0</v>
       </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="D4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -662,8 +699,9 @@
       <c r="I5" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -686,10 +724,11 @@
         <v>13</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+        <v>25</v>
+      </c>
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -712,10 +751,11 @@
         <v>13</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+        <v>41</v>
+      </c>
+      <c r="J7" s="3"/>
+    </row>
+    <row r="8" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -738,10 +778,11 @@
         <v>13</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+        <v>26</v>
+      </c>
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -764,15 +805,16 @@
         <v>13</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+        <v>24</v>
+      </c>
+      <c r="J9" s="3"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
@@ -800,8 +842,9 @@
       <c r="I13" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="J13" s="3"/>
+    </row>
+    <row r="14" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>7</v>
       </c>
@@ -829,8 +872,9 @@
       <c r="I14" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="J14" s="3"/>
+    </row>
+    <row r="15" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
         <v>7</v>
       </c>
@@ -856,10 +900,11 @@
         <v>19</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+        <v>39</v>
+      </c>
+      <c r="J15" s="3"/>
+    </row>
+    <row r="16" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
         <v>7</v>
       </c>
@@ -885,8 +930,9 @@
         <v>19</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>41</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="J16" s="3"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
@@ -1023,8 +1069,9 @@
         <v>19</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>37</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="J24" s="3"/>
     </row>
     <row r="25" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
@@ -1052,8 +1099,9 @@
         <v>19</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>38</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="J25" s="3"/>
     </row>
     <row r="26" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
@@ -1081,9 +1129,9 @@
         <v>19</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J26" s="3"/>
+        <v>38</v>
+      </c>
+      <c r="J26" s="4"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
@@ -1189,10 +1237,11 @@
         <v>19</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+        <v>33</v>
+      </c>
+      <c r="J32" s="3"/>
+    </row>
+    <row r="33" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A33" s="1" t="s">
         <v>8</v>
       </c>
@@ -1218,10 +1267,11 @@
         <v>19</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+        <v>29</v>
+      </c>
+      <c r="J33" s="3"/>
+    </row>
+    <row r="34" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A34" s="1" t="s">
         <v>8</v>
       </c>
@@ -1247,10 +1297,11 @@
         <v>19</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+        <v>32</v>
+      </c>
+      <c r="J34" s="3"/>
+    </row>
+    <row r="35" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A35" s="1" t="s">
         <v>8</v>
       </c>
@@ -1276,10 +1327,11 @@
         <v>19</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+        <v>28</v>
+      </c>
+      <c r="J35" s="3"/>
+    </row>
+    <row r="36" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A36" s="1" t="s">
         <v>8</v>
       </c>
@@ -1305,10 +1357,11 @@
         <v>19</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
+        <v>27</v>
+      </c>
+      <c r="J36" s="3"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>8</v>
       </c>
@@ -1334,7 +1387,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>8</v>
       </c>
@@ -1360,7 +1413,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>8</v>
       </c>
@@ -1386,7 +1439,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>8</v>
       </c>
@@ -1412,7 +1465,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>8</v>
       </c>
@@ -1438,7 +1491,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
         <v>8</v>
       </c>
@@ -1464,7 +1517,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
         <v>8</v>
       </c>
@@ -1490,7 +1543,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
         <v>8</v>
       </c>
@@ -1516,7 +1569,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
         <v>8</v>
       </c>
@@ -1542,7 +1595,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
         <v>8</v>
       </c>
@@ -1568,7 +1621,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A50" s="1" t="s">
         <v>8</v>
       </c>
@@ -1594,10 +1647,11 @@
         <v>19</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+        <v>35</v>
+      </c>
+      <c r="J50" s="3"/>
+    </row>
+    <row r="51" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A51" s="1" t="s">
         <v>8</v>
       </c>
@@ -1623,10 +1677,11 @@
         <v>19</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+        <v>31</v>
+      </c>
+      <c r="J51" s="3"/>
+    </row>
+    <row r="52" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A52" s="1" t="s">
         <v>8</v>
       </c>
@@ -1651,11 +1706,12 @@
       <c r="H52" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I52" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="I52" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J52" s="3"/>
+    </row>
+    <row r="53" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A53" s="1" t="s">
         <v>8</v>
       </c>
@@ -1681,10 +1737,11 @@
         <v>19</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+        <v>30</v>
+      </c>
+      <c r="J53" s="3"/>
+    </row>
+    <row r="54" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A54" s="1" t="s">
         <v>8</v>
       </c>
@@ -1710,8 +1767,9 @@
         <v>19</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>35</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="J54" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/examples/masterarbeit/yale_total_notebooks/experiments_yale.xlsx
+++ b/examples/masterarbeit/yale_total_notebooks/experiments_yale.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Florian\Documents\PySyft-fork\examples\masterarbeit\yale_total_notebooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C70C92E-6C04-43B0-A380-703E21120BD2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95A8A08F-AFE2-4EF8-82DE-F160119B4E4A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C11075B9-7AA2-416A-A2BB-E8EDCD451B3E}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="61">
   <si>
     <t>Merge strategy</t>
   </si>
@@ -153,23 +153,74 @@
     <t>exp_yale_20200321-091703</t>
   </si>
   <si>
-    <t>exp_yale_20200321-102415</t>
-  </si>
-  <si>
     <t>exp_yale_20200321-111208</t>
   </si>
   <si>
     <t>exp_yale_20200321-132011</t>
   </si>
   <si>
-    <t>TODO</t>
+    <t>exp_yale_20200322-000349</t>
+  </si>
+  <si>
+    <t>exp_yale_20200322-011552</t>
+  </si>
+  <si>
+    <t>exp_yale_20200322-095535</t>
+  </si>
+  <si>
+    <t>exp_yale_20200322-115310</t>
+  </si>
+  <si>
+    <t>exp_yale_20200322-141859</t>
+  </si>
+  <si>
+    <t>exp_yale_20200323-103255</t>
+  </si>
+  <si>
+    <t>exp_yale_20200322-173547</t>
+  </si>
+  <si>
+    <t>exp_yale_20200322-173612</t>
+  </si>
+  <si>
+    <t>exp_yale_20200322-182351</t>
+  </si>
+  <si>
+    <t>exp_yale_20200322-182416</t>
+  </si>
+  <si>
+    <t>exp_yale_20200322-190323</t>
+  </si>
+  <si>
+    <t>exp_yale_20200322-190337</t>
+  </si>
+  <si>
+    <t>exp_yale_20200322-193415</t>
+  </si>
+  <si>
+    <t>exp_yale_20200322-193425</t>
+  </si>
+  <si>
+    <t>exp_yale_20200322-200923</t>
+  </si>
+  <si>
+    <t>exp_yale_20200322-202918</t>
+  </si>
+  <si>
+    <t>exp_yale_20200322-203036</t>
+  </si>
+  <si>
+    <t>exp_yale_20200322-212525</t>
+  </si>
+  <si>
+    <t>exp_yale_20200322-212541</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -200,20 +251,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C5700"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -228,11 +272,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
     <fill>
@@ -265,28 +304,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="4"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="4">
     <cellStyle name="Berechnung" xfId="2" builtinId="22"/>
     <cellStyle name="Gut" xfId="1" builtinId="26"/>
-    <cellStyle name="Neutral" xfId="4" builtinId="28"/>
-    <cellStyle name="Schlecht" xfId="3" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -602,7 +639,7 @@
   <dimension ref="A1:J54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32:J36"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -670,7 +707,7 @@
         <v>13</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J4" s="3"/>
     </row>
@@ -751,7 +788,7 @@
         <v>13</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J7" s="3"/>
     </row>
@@ -930,7 +967,7 @@
         <v>19</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="J16" s="3"/>
     </row>
@@ -959,6 +996,9 @@
       <c r="H18" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="I18" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
@@ -985,6 +1025,9 @@
       <c r="H19" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="I19" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
@@ -1011,6 +1054,9 @@
       <c r="H20" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="I20" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
@@ -1037,6 +1083,9 @@
       <c r="H21" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="I21" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
@@ -1158,6 +1207,9 @@
       <c r="H28" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="I28" s="3" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
@@ -1184,6 +1236,9 @@
       <c r="H29" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="I29" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
@@ -1210,6 +1265,9 @@
       <c r="H30" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="I30" s="3" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="32" spans="1:10" s="1" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="1" t="s">
@@ -1386,6 +1444,9 @@
       <c r="H38" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="I38" s="3" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
@@ -1412,6 +1473,9 @@
       <c r="H39" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="I39" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
@@ -1438,6 +1502,9 @@
       <c r="H40" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="I40" s="5" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
@@ -1464,6 +1531,9 @@
       <c r="H41" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="I41" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
@@ -1490,6 +1560,9 @@
       <c r="H42" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="I42" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
@@ -1516,6 +1589,9 @@
       <c r="H44" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="I44" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
@@ -1542,6 +1618,9 @@
       <c r="H45" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="I45" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
@@ -1568,6 +1647,9 @@
       <c r="H46" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="I46" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
@@ -1594,6 +1676,9 @@
       <c r="H47" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="I47" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
@@ -1620,6 +1705,9 @@
       <c r="H48" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="I48" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="50" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A50" s="1" t="s">
@@ -1706,8 +1794,8 @@
       <c r="H52" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I52" s="5" t="s">
-        <v>43</v>
+      <c r="I52" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="J52" s="3"/>
     </row>
